--- a/BebrasContest.xlsx
+++ b/BebrasContest.xlsx
@@ -413,10 +413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ストレステストのスクリプトが2つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tracking</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -574,6 +570,10 @@
     <rPh sb="4" eb="6">
       <t>コウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストレステストのスクリプトが2つ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -633,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -647,7 +647,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -985,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -998,21 +997,21 @@
     <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="37" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="37" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>92</v>
+      <c r="E1" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="44">
@@ -1026,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="122">
@@ -1054,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1068,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="239">
@@ -1082,7 +1081,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1111,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1125,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31">
@@ -1136,7 +1135,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1150,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1189,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31">
@@ -1203,7 +1202,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1217,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="291">
@@ -1234,7 +1233,7 @@
         <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="31">
@@ -1251,7 +1250,7 @@
         <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409">
@@ -1265,7 +1264,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="31">
@@ -1279,18 +1278,18 @@
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="83">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="200">
@@ -1304,77 +1303,77 @@
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="44">
       <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
